--- a/results/DeepSeekCoder.xlsx
+++ b/results/DeepSeekCoder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xuan\Documents\GitHub\LLM-Vulnerable-Malicious-Prompts\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFC216C-41C4-46F7-B253-E032AF690C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B039E436-ED12-4480-8289-DF870F1D662E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9E9B9431-1FB5-4C09-8C30-3C413850B47E}"/>
   </bookViews>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEB39C1-C30E-4434-9309-7E0384E44E23}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
